--- a/config_8.17/permission_server_config.xlsx
+++ b/config_8.17/permission_server_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -10386,7 +10386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q511"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D485" sqref="D485"/>
     </sheetView>
@@ -15537,10 +15537,10 @@
   <dimension ref="A1:O410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D399" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D321" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C409" sqref="C409"/>
+      <selection pane="bottomRight" activeCell="D334" sqref="D334:G334"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -29390,11 +29390,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C1094" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C1082" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1111" sqref="C1111"/>
+      <selection pane="bottomRight" activeCell="F1115" sqref="F1115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -55796,7 +55796,7 @@
         <v>5</v>
       </c>
       <c r="F1107" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G1107" s="21" t="s">
         <v>2096</v>
